--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -61,6 +64,12 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -79,76 +88,76 @@
     <t>special</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,16 +605,16 @@
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4391534391534391</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -675,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4011627906976744</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -725,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3154362416107382</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -775,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.126984126984127</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.08310991957104558</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,37 +884,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01715210355987055</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3037</v>
+        <v>336</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +926,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.01915584415584416</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <v>0.31</v>
+      </c>
+      <c r="F10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3021</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +976,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="B11">
+        <v>0.01272984441301273</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0.45</v>
+      </c>
+      <c r="F11">
+        <v>0.55</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2094</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +1026,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.007974481658692184</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>0.73</v>
+      </c>
+      <c r="F12">
+        <v>0.27</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3110</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.7578125</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +1076,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1154,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1180,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="L18">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>0.7441860465116279</v>
-      </c>
-      <c r="L18">
-        <v>32</v>
-      </c>
       <c r="M18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L21">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6150627615062761</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L23">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M23">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,47 +1388,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6054421768707483</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4831460674157304</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.3974358974358974</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.3835616438356164</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,59 +1518,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.01730648206419132</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>3123</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.01272984441301273</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>0.0207808564231738</v>
+      </c>
+      <c r="L32">
+        <v>66</v>
+      </c>
+      <c r="M32">
+        <v>91</v>
+      </c>
+      <c r="N32">
+        <v>0.73</v>
+      </c>
+      <c r="O32">
+        <v>0.27</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>0.008858267716535433</v>
+      </c>
+      <c r="L33">
         <v>27</v>
       </c>
-      <c r="M31">
-        <v>49</v>
-      </c>
-      <c r="N31">
-        <v>0.55</v>
-      </c>
-      <c r="O31">
-        <v>0.45</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>2094</v>
+      <c r="M33">
+        <v>86</v>
+      </c>
+      <c r="N33">
+        <v>0.31</v>
+      </c>
+      <c r="O33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3021</v>
       </c>
     </row>
   </sheetData>
